--- a/PCB - Rack/Project Outputs for G2_LV/G2_LV3.xlsx
+++ b/PCB - Rack/Project Outputs for G2_LV/G2_LV3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samer\Documents\GitHub\G-2\PCB - Rack\Project Outputs for G2_LV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkilani\Documents\GitHub\G-2\PCB - Rack\Project Outputs for G2_LV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="G2_LV3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">G2_LV3!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="232">
   <si>
     <t>Designator</t>
   </si>
@@ -197,9 +200,6 @@
     <t>Q1_B, Q1_C</t>
   </si>
   <si>
-    <t>INF-PG-TDSON-8-1_V</t>
-  </si>
-  <si>
     <t>BSC320N20NS3 G</t>
   </si>
   <si>
@@ -521,9 +521,6 @@
     <t>C23_B, C23_C</t>
   </si>
   <si>
-    <t>C1005C0G1H471J050BA</t>
-  </si>
-  <si>
     <t>470p</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
   </si>
   <si>
     <t>C22_B, C22_C</t>
-  </si>
-  <si>
-    <t>04025C472KAT2A</t>
   </si>
   <si>
     <t>4700pF</t>
@@ -764,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -787,33 +781,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,22 +1093,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1126,18 +1127,18 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1152,17 +1153,17 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <f>D2*3</f>
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1177,17 +1178,17 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G65" si="0">D3*3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1202,17 +1203,17 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1227,17 +1228,17 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1252,17 +1253,17 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1277,17 +1278,17 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1302,17 +1303,17 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1327,17 +1328,17 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1352,17 +1353,17 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1377,17 +1378,17 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1402,17 +1403,17 @@
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1427,17 +1428,17 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1452,17 +1453,17 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1477,17 +1478,17 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1502,17 +1503,17 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1527,17 +1528,17 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1552,318 +1553,319 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="3">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1872,23 +1874,23 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1897,23 +1899,23 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
@@ -1922,298 +1924,298 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D37" s="3">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A42" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
@@ -2222,48 +2224,48 @@
         <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -2272,148 +2274,148 @@
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A51" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
@@ -2422,196 +2424,196 @@
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="3">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="3">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="3">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="3">
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A58" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A61" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
@@ -2620,23 +2622,23 @@
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="6">
+        <v>168</v>
+      </c>
+      <c r="G61" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A62" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>171</v>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3">
         <v>7</v>
@@ -2645,86 +2647,89 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G62" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A63" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="G63" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="B65" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H65" s="6"/>
+      <c r="G65" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB - Rack/Project Outputs for G2_LV/G2_LV3.xlsx
+++ b/PCB - Rack/Project Outputs for G2_LV/G2_LV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17990" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="G2_LV3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="235">
   <si>
     <t>Designator</t>
   </si>
@@ -122,15 +122,9 @@
     <t>DO-214AA</t>
   </si>
   <si>
-    <t>SMBJ10CA</t>
-  </si>
-  <si>
     <t>DTVS2</t>
   </si>
   <si>
-    <t>SMBJ48A</t>
-  </si>
-  <si>
     <t>F1, F2_A, F2_D, F3_B, F3_C</t>
   </si>
   <si>
@@ -729,6 +723,12 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>SMBJ12CA</t>
+  </si>
+  <si>
+    <t>SMBJ36A</t>
   </si>
 </sst>
 </file>
@@ -1096,20 +1096,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.53125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1127,15 +1127,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1158,9 +1158,9 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1183,9 +1183,9 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1208,9 +1208,9 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1233,9 +1233,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -1258,9 +1258,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -1283,9 +1283,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -1308,9 +1308,9 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -1333,9 +1333,9 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1372,498 +1372,498 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="3">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
@@ -1880,15 +1880,15 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
@@ -1905,15 +1905,15 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
@@ -1922,298 +1922,298 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D37" s="3">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="3">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A42" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
@@ -2222,48 +2222,48 @@
         <v>8</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
@@ -2272,148 +2272,148 @@
         <v>8</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
@@ -2422,196 +2422,196 @@
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="3">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="3">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3">
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="3">
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="G57" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G57" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A58" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="G59" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G59" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A61" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
@@ -2620,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
@@ -2628,15 +2628,15 @@
       </c>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="3">
         <v>7</v>
@@ -2645,77 +2645,77 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G62" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A63" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="G63" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="B65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
